--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 09:58:36</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:13:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:13:06</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:48:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:48:33</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:58:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:58:32</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:16:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:16:49</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:30:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:30:42</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:41:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:41:09</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:49:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:49:17</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:57:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:57:54</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:16:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:16:27</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:34:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:34:14</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:45:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:45:26</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:53:55</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:03:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:03:13</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:21:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:21:28</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:30:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:30:36</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:39:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:39:53</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:48:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:48:45</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:57:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:57:37</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:17:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:17:20</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:35:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:35:26</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:46:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:46:56</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:55:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:55:10</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:07:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:07:47</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:22:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:22:46</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:31:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:31:30</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:40:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:40:35</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:49:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:49:09</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:57:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:57:55</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:17:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:17:12</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:33:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:33:42</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:44:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:44:32</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:57:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:57:45</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:02:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:02:25</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:21:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:21:10</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:30:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:30:25</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:39:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:39:27</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:48:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:48:44</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:57:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:57:58</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:13:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:13:58</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:31:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:31:28</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:41:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:41:40</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:50:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:50:13</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:59:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:59:05</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:14:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:14:14</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:25:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:25:12</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:34:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:34:50</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:43:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:43:06</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:51:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:51:49</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 09:01:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 09:01:08</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 09:33:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 09:33:58</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 09:59:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 09:59:34</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 10:22:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 10:22:01</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 10:34:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 10:34:46</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 10:43:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 10:43:29</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 10:51:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 10:51:42</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:01:14</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -11105,7 +11105,7 @@
     <t>PURO OURO</t>
   </si>
   <si>
-    <t>WAGNER LOPES GHELER</t>
+    <t>WENYU ZHO</t>
   </si>
   <si>
     <t>-15°33'22.230"</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:01:14</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:17:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:17:21</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:29:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223823.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:29:00</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:38:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223823.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:38:33</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:46:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:46:46</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 11:55:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 11:55:56</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:09:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:09:58</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:26:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:26:38</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:36:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:36:09</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:45:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:45:14</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 12:53:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 12:53:54</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:02:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:02:43</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:30:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:30:32</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:47:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:47:05</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 01:56:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 01:56:04</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:09:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:09:19</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:25:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:25:24</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:34:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:34:17</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:43:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:43:12</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 02:52:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 02:52:12</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:00:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:22:51</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:36:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:36:23</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:45:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:45:43</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 03:54:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 03:54:54</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:03:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:03:31</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:19:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:19:06</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:27:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:27:39</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:37:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:37:11</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:46:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224623.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:46:30</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 04:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 04:55:35</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:07:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:07:51</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:25:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:25:57</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:34:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:34:51</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:43:44</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -31774,7 +31774,7 @@
         <v>32</v>
       </c>
       <c r="R325" s="0" t="s">
-        <v>146</v>
+        <v>612</v>
       </c>
       <c r="S325" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:43:44</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 05:52:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 05:52:50</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:02:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221823.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:02:07</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:18:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221823.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:18:08</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:27:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:27:27</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:37:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:37:11</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:45:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224523.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:45:48</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 06:54:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220423.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 06:54:41</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:04:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220423.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222323.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:04:57</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:23:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222323.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223223.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:23:01</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:32:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223223.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:32:55</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:41:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224123.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225023.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:41:40</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:50:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225023.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:50:33</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 07:59:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 07:59:41</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:17:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221723.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:17:15</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:29:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:29:24</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:39:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223923.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:39:08</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:48:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-23.xlsx
+++ b/sigbm_download_2022-12-23.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224823.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225623.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 23/12/2022 - 08:48:07</t>
+    <t>Informação extraída do SIGBM: 23/12/2022 - 08:56:32</t>
   </si>
   <si>
     <t>ID Barragem</t>
